--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -153,10 +153,6 @@
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDataSQL</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -406,12 +402,75 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId": "consume",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
+    <t>/batchQueryById</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-userIds，部分存在，部分不存在</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cun'zai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-userIds，都不存在</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu'cun'zai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-userIds，部分存在，部分为空</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei'kong</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/batchQueryById</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数-userIds，大于1000</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da'yu</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -424,56 +483,232 @@
             "tenantId": "CONSUME",
             "tenantUserId": "005",
             "userId": 693145221335302144,
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/batchQueryById</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+必传参数-userIds为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必传参数缺失-tuserIds</t>
+    <rPh sb="0" eb="1">
+      <t>bi'chuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cna'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>que'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"consume",
+"userIds": ["005"],
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0014",
+    "resMsg": "系统异常",
+    "successful": 0
+}</t>
+    <rPh sb="0" eb="1">
+      <t>mu'qian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'hiu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"consume",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "123",
+            "tenantUserId": "679",
+            "userId": 694640163258183680,
+            "createTime": "2020-03-31 19:12:01",
+            "updateTime": "2020-03-31 19:12:01"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userIds": ["005","0019","00111"],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryUserInfosReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "consume",
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'userIds': rejected value [null]; codes [NotNull.batchQueryUserInfosReq.userIds,NotNull.userIds,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.userIds,userIds]; arguments []; default message [userIds]]; default message [租户用户id数组不允许为空]] "
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchqueryById-002</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-003</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-004</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-005</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-006</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-007</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-008</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-009</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-010</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-011</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-012</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-013</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-014</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-015</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-016</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-017</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-018</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-019</t>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["0051","0019","00111"],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["005","0019","00111"],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["005","",""],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["999","000","1111111"],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
             "name": "小芳",
             "mobileNo": "18899934567",
             "createTime": "2020-03-27 16:11:39",
             "updateTime": "2020-03-27 16:11:39"
         }
     ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/batchQueryById</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userIds": ["0051","0019","00111"],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数-userIds，部分存在，部分不存在</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>cun'zai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bu'cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userIds": ["005","0019","00111"],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -486,7 +721,7 @@
         {
             "tenantId": "CONSUME",
             "tenantUserId": "005",
-            "userId": 693145221335302144,
+            "userId": 693145221335302000,
             "name": "小芳",
             "mobileNo": "5",
             "createTime": "2020-03-27 16:11:39",
@@ -497,72 +732,303 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>必传参数-userIds，都不存在</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dou</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bu'cun'zai</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"tenantId": "consume",
-"userIds": ["999","000","1111111"],
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
+            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
+            "certNo": "2bb6fa304390f4ebdf1479372649b515",
+            "email": "a71249d4fe6f56f76de86b532ef74c1b",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId":693145221335302000,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"0"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"1"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小*",
+            "mobileNo": "188****4567",
+            "certNo": "3412**********0000",
+            "email": "1234***@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "certNo": "341222199303040000",
+            "email": "1234567@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"2"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId":693145221335302000,
+            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
+            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
+            "certNo": "2bb6fa304390f4ebdf1479372649b515",
+            "email": "a71249d4fe6f56f76de86b532ef74c1b",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":""
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDataSQL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"2"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataDetail":"dewer"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302144,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "certNo": "341222199303040000",
+            "email": "1234567@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchqueryById-001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userBatchqueryById-020</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-021</t>
+  </si>
+  <si>
+    <t>userBatchqueryById-022</t>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"name,certNo"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "certNo": "341222199303040000",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId":"123",
+"userIds": ["679"],
+"dataDetail":""
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"1name1111,certNo111"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "",
+"userIds": ["005","0019","00111"],
 "dataType":"1",
 "dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>必传参数-userIds，部分存在，部分为空</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei'kong</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/batchQueryById</t>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryUserInfosReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{
 "tenantId": "consume",
-"userIds": ["005","",""],
+"userIds":[],
 "dataType":"1",
 "dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>必传参数-userIds，大于1000</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>can'shu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>da'yu</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"tenantId": "consume",
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'userIds': rejected value [[]]; codes [Size.batchQueryUserInfosReq.userIds,Size.userIds,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.userIds,userIds]; arguments []; default message [userIds],2147483647,1]; default message [租户用户id数组长度至少为1]] "
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
 "userIds": ["005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
             "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
             "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
@@ -636,498 +1102,33 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "CONSUME",
+            "tenantId": "1001",
             "tenantUserId": "005",
-            "userId": 693145221335302144,
+            "userId": 693145221335302000,
             "name": "小芳",
             "mobileNo": "18899934567",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        },
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "6668",
-            "userId": 694209574595805184,
-            "name": "李子七",
-            "mobileNo": "13810342337",
-            "createTime": "2020-03-30 14:41:00",
-            "updateTime": "2020-03-30 14:41:00"
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":""
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小*",
-            "mobileNo": "188****4567",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataDetail":"dewer"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"2"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/batchQueryById</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"1name1111,certNo111"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-必传参数-userIds为空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必传参数缺失-tuserIds</t>
-    <rPh sb="0" eb="1">
-      <t>bi'chuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cna'shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>que'shi</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>user-0056</t>
-  </si>
-  <si>
-    <t>user-0057</t>
-  </si>
-  <si>
-    <t>user-0058</t>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小*",
-            "mobileNo": "188****4567",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"0"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小*",
-            "mobileNo": "188****4567",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"1"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-            "certNo": "2bb6fa304390f4ebdf1479372649b515",
-            "email": "a71249d4fe6f56f76de86b532ef74c1b",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0014",
-    "resMsg": "系统异常",
-    "successful": 0
-}</t>
-    <rPh sb="0" eb="1">
-      <t>mu'qian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fan'hiu</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"2"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-            "certNo": "2bb6fa304390f4ebdf1479372649b515",
-            "email": "a71249d4fe6f56f76de86b532ef74c1b",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"name,certNo"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小芳",
-            "certNo": "341222199303040000",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"tenantId":"123",
-"userIds": ["679"],
-"dataDetail":""
-}
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "123",
-            "tenantUserId": "679",
-            "userId": 694640163258183680,
-            "createTime": "2020-03-31 19:12:01",
-            "updateTime": "2020-03-31 19:12:01"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "",
-"userIds": ["005","0019","00111"],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'tenantId': rejected value []; codes [NotEmpty.batchQueryUserInfosReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userIds": ["005","0019","00111"],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryUserInfosReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"userIds":[],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'userIds': rejected value [[]]; codes [Size.batchQueryUserInfosReq.userIds,Size.userIds,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.userIds,userIds]; arguments []; default message [userIds],2147483647,1]; default message [租户用户id数组长度至少为1]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'userIds': rejected value [null]; codes [NotNull.batchQueryUserInfosReq.userIds,NotNull.userIds,NotNull.java.util.List,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.userIds,userIds]; arguments []; default message [userIds]]; default message [租户用户id数组不允许为空]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>userBatchqueryById-001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>userBatchqueryById-002</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-003</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-004</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-005</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-006</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-007</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-008</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-009</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-010</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-011</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-012</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-013</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-014</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-015</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-016</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-017</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-018</t>
-  </si>
-  <si>
-    <t>userBatchqueryById-019</t>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1268,7 +1269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1389,6 +1390,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1675,8 +1679,8 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1684,10 +1688,9 @@
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32" style="8" customWidth="1"/>
+    <col min="4" max="5" width="1.08203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="48.58203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
@@ -1717,748 +1720,752 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="169.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="F2" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>110</v>
+      </c>
       <c r="H2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="84">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="224">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="22" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="84">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="224">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="22" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="105" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="252">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="22" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="116.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="22" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="252">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="308">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="252">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="117.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="22" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="196">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" ht="308">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="13" customFormat="1" ht="252">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="224">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="196">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="22" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="125" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="22" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="29" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="29" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="29" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="29" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="12"/>

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -471,23 +471,6 @@
     <rPh sb="13" eb="14">
       <t>da'yu</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -532,32 +515,6 @@
     <rPh sb="2" eb="3">
       <t>fan'hiu</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"all"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "123",
-            "tenantUserId": "679",
-            "userId": 694640163258183680,
-            "createTime": "2020-03-31 19:12:01",
-            "updateTime": "2020-03-31 19:12:01"
-        }
-    ]
-}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -705,25 +662,6 @@
             "userId": 693145221335302000,
             "name": "小芳",
             "mobileNo": "18899934567",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小芳",
-            "mobileNo": "5",
             "createTime": "2020-03-27 16:11:39",
             "updateTime": "2020-03-27 16:11:39"
         }
@@ -817,27 +755,6 @@
   </si>
   <si>
     <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId":"1001",
 "userIds": ["005"],
 "dataType":"2"
@@ -894,27 +811,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302144,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "certNo": "341222199303040000",
-            "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>userBatchqueryById-001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -956,37 +852,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-"tenantId":"123",
-"userIds": ["679"],
-"dataDetail":""
-}
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
 "userIds": ["005"],
 "dataType":"1",
 "dataDetail":"1name1111,certNo111"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1096,6 +966,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 0019 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 0019 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 0019 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 00111 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 00111 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 00111 and tenant_id = 1001
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "CONSUME",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "mobileNo": "5",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -1115,20 +1033,123 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小*",
+            "mobileNo": "188****4567",
+            "certNo": "3412**********0000",
+            "email": "1234***@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小*",
+            "mobileNo": "188****4567",
+            "certNo": "3412**********0000",
+            "email": "1234***@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "certNo": "341222199303040000",
+            "email": "1234567@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "certNo": "341222199303040000",
+            "email": "1234567@126.com",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataDetail":""
+}
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1678,9 +1699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1720,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1758,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>36</v>
@@ -1766,10 +1787,10 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="41" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>15</v>
@@ -1781,11 +1802,11 @@
         <v>34</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -1794,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>20</v>
@@ -1813,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="22" t="s">
@@ -1821,20 +1842,24 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="224">
+    <row r="4" spans="1:16" ht="409.5">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>102</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1845,11 +1870,11 @@
         <v>13</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="22" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1858,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>40</v>
@@ -1877,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22" t="s">
@@ -1885,20 +1910,24 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="224">
+    <row r="6" spans="1:16" ht="409.5">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1909,11 +1938,11 @@
         <v>13</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -1922,15 +1951,19 @@
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1941,28 +1974,32 @@
         <v>13</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="252">
+    <row r="8" spans="1:16" ht="409.5">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1973,11 +2010,11 @@
         <v>13</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="22" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -1986,15 +2023,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
@@ -2005,28 +2046,32 @@
         <v>13</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="252">
+    <row r="10" spans="1:16" ht="409.5">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2037,28 +2082,32 @@
         <v>13</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="308">
+    <row r="11" spans="1:16" ht="409.5">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
@@ -2069,28 +2118,32 @@
         <v>13</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:16" ht="252">
+    <row r="12" spans="1:16" ht="409.5">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="F12" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H12" s="10" t="s">
         <v>15</v>
       </c>
@@ -2101,11 +2154,11 @@
         <v>13</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -2114,7 +2167,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>26</v>
@@ -2133,28 +2186,32 @@
         <v>13</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="196">
+    <row r="14" spans="1:16" ht="409.5">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H14" s="10" t="s">
         <v>15</v>
       </c>
@@ -2165,28 +2222,32 @@
         <v>13</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="22" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="308">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
@@ -2197,29 +2258,33 @@
         <v>13</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="252">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="409.5">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="F16" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>15</v>
       </c>
@@ -2230,29 +2295,33 @@
         <v>13</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="224">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="409.5">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
@@ -2263,29 +2332,33 @@
         <v>13</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="196">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="409.5">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H18" s="10" t="s">
         <v>15</v>
       </c>
@@ -2296,11 +2369,11 @@
         <v>13</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="22" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
@@ -2310,30 +2383,34 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>101</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>
@@ -2343,7 +2420,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>33</v>
@@ -2362,11 +2439,11 @@
         <v>13</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
@@ -2376,10 +2453,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2395,11 +2472,11 @@
         <v>13</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
@@ -2409,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>14</v>
@@ -2428,11 +2505,11 @@
         <v>13</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="12"/>
@@ -2442,10 +2519,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
@@ -2455,17 +2532,17 @@
         <v>15</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="12"/>

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchqueryById" sheetId="2" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -986,15 +986,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -1150,6 +1141,24 @@
 }
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1699,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1787,7 +1796,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>101</v>
@@ -1855,7 +1864,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="41" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>102</v>
@@ -1874,7 +1883,7 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1923,7 +1932,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>101</v>
@@ -1946,7 +1955,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="105" customHeight="1">
+    <row r="7" spans="1:16" ht="196.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1959,7 +1968,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="26"/>
       <c r="F7" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>101</v>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -1995,7 +2004,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>101</v>
@@ -2014,11 +2023,11 @@
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="116.5" customHeight="1">
+    <row r="9" spans="1:16" ht="182" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -2031,7 +2040,7 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>101</v>
@@ -2067,7 +2076,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>101</v>
@@ -2086,7 +2095,7 @@
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -2103,7 +2112,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>101</v>
@@ -2139,7 +2148,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>101</v>
@@ -2158,7 +2167,7 @@
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -2207,7 +2216,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>101</v>
@@ -2226,7 +2235,7 @@
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="9"/>
     </row>
@@ -2243,7 +2252,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>101</v>
@@ -2280,7 +2289,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>101</v>
@@ -2295,11 +2304,11 @@
         <v>13</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
@@ -2317,7 +2326,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>101</v>
@@ -2354,7 +2363,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>101</v>
@@ -2369,11 +2378,11 @@
         <v>13</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
@@ -2391,7 +2400,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>101</v>
@@ -2410,7 +2419,7 @@
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="12"/>

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userBatchqueryById/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11310"/>
+    <workbookView xWindow="3060" yWindow="-22000" windowWidth="38520" windowHeight="22000"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchqueryById" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -181,10 +192,6 @@
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -493,14 +500,6 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"userIds": ["005"],
-"dataType":"4"
-}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -531,14 +530,6 @@
     "resMsg": "系统错误",
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.batchQueryUserInfosReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "consume",
-"dataType":"1",
-"dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -880,146 +871,10 @@
   </si>
   <si>
     <t>{
-"tenantId": "consume",
-"userIds":[],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.batchQueryById(***.web.request.BatchQueryUserInfosReq): [Field error in object 'batchQueryUserInfosReq' on field 'userIds': rejected value [[]]; codes [Size.batchQueryUserInfosReq.userIds,Size.userIds,Size.java.util.List,Size]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [batchQueryUserInfosReq.userIds,userIds]; arguments []; default message [userIds],2147483647,1]; default message [租户用户id数组长度至少为1]] "
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userIds": ["005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668", 
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668",
-            "005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668","005","6668"
-         ],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 0019 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 0019 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 0019 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 00111 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 00111 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 00111 and tenant_id = 1001
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "CONSUME",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小芳",
-            "mobileNo": "5",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "createTime": "2020-03-28 21:49:59",
-            "updateTime": "2020-03-28 21:49:59"
-        }
-    ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1134,15 +989,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-"tenantId":"1001",
-"userIds": ["005"],
-"dataDetail":""
-}
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -1152,6 +998,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "CONSUME",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小芳",
+            "mobileNo": "5",
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -1160,12 +1025,120 @@
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataDetail":"name"
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "createTime": "2020-03-27 16:11:39",
+            "updateTime": "2020-03-27 16:11:39"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds":[],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["4953", "005", "7899", "7453", "1088", "7487", "9898", "1501", "1975", "699", "2180", "8255", "4896", "9966", "1833", "225", "9654", "1170", "4100", "4344", "8779", "5991", "9132", "2431", "5878", "5591", "5393", "4360", "9207", "2631", "7847", "869", "9275", "4877", "3473", "7879", "8949", "5145", "3277", "6101", "8213", "4143", "7661", "8573", "7545", "4744", "417", "7409", "2070", "6488", "1278", "2722", "4861", "2035", "2431", "2975", "4359", "2322", "5652", "4915", "9309", "4442", "8426", "641", "9609", "3971", "9380", "8192", "9128", "4066", "9406", "7510", "7449", "8154", "5868", "6333", "3931", "4751", "8752", "2262", "5796", "2518", "6959", "2525", "4614", "1371", "193", "186", "1106", "9840", "2552", "4248", "6571", "5648", "2358", "7577", "2990", "7252", "1108", "6095", "443", "5057", "5391", "5705", "4031", "459", "3398", "3618", "8704", "2459", "2976", "1489", "3236", "674", "3729", "7823", "4422", "626", "9254", "9691", "9455", "5447", "4647", "54", "7062", "6886", "976", "7977", "6816", "7090", "636", "4029", "4633", "7054", "7274", "5255", "691", "8672", "5661", "1799", "4716", "7161", "7180", "7789", "8000", "9394", "2579", "2688", "6792", "8387", "8875", "2158", "3652", "8066", "9214", "5964", "8149", "7446", "2169", "917", "2611", "1172", "9375", "7471", "7139", "2110", "3700", "7213", "6052", "8672", "4939", "1965", "691", "6379", "3585", "2512", "6608", "3114", "5999", "495", "4922", "8164", "973", "4751", "8466", "8676", "4726", "2751", "9352", "2002", "3461", "575", "3516", "9015", "6649", "7975", "563", "5742", "5152", "6005", "9439", "764", "2226", "6512", "4660", "7674", "539", "6171", "5642", "498", "4938", "6610", "3250", "8597", "2895", "5937", "5063", "6982", "2559", "7412", "5546", "8905", "6774", "3708", "4415", "497", "5159", "7790", "9449", "6159", "6549", "5779", "130", "9937", "5828", "9104", "1940", "6649", "7656", "5503", "5577", "8715", "8159", "3809", "6115", "9643", "9744", "4363", "9367", "9153", "5188", "3400", "366", "5522", "6572", "4856", "1378", "4429", "7369", "8658", "7989", "1834", "6131", "8282", "3559", "1982", "7885", "7111", "415", "747", "6465", "2121", "5568", "2796", "883", "7815", "1207", "450", "3933", "5140", "3630", "3949", "9734", "1912", "6342", "3098", "5690", "5175", "3778", "2562", "6717", "3587", "1119", "462", "2569", "991", "5066", "6695", "4264", "3618", "7836", "103", "3742", "1973", "1873", "1303", "2534", "5366", "6721", "9352", "7142", "8027", "2062", "656", "8009", "9270", "7268", "9188", "6565", "1385", "1001", "3483", "1266", "7687", "5797", "2931", "1726", "2676", "2487", "6900", "8899", "5771", "968", "9259", "6941", "7058", "5222", "6846", "4313", "3686", "5112", "2020", "389", "4420", "838", "8407", "8595", "468", "5062", "6216", "6235", "9737", "2405", "8328", "2977", "248", "8491", "3942", "7686", "9675", "7652", "2290", "7463", "5898", "5711", "715", "5398", "9894", "5098", "8988", "9402", "2684", "4882", "1185", "4486", "6243", "1552", "6431", "6445", "3670", "153", "7658", "403", "507", "4403", "253", "3012", "5891", "702", "8769", "8868", "7098", "428", "6669", "6855", "2295", "3969", "1463", "1290", "9677", "4756", "5502", "5782", "4564", "9932", "6015", "8429", "5019", "1236", "1224", "5545", "9653", "1295", "8194", "4991", "9956", "2229", "5653", "181", "986", "8916", "5951", "4269", "7910", "9524", "4871", "9366", "1032", "4308", "2532", "9959", "1919", "1030", "7772", "7", "8110", "3104", "3558", "5760", "4124", "5008", "3174", "2886", "6234", "5637", "9316", "4185", "4543", "6706", "6462", "5495", "3164", "1437", "3917", "2196", "7733", "9418", "2636", "8157", "518", "3824", "5734", "9855", "3075", "1225", "2357", "9410", "328", "4869", "820", "8030", "3944", "7231", "5553", "5718", "1374", "1103", "6508", "6530", "4390", "4811", "7117", "9950", "5413", "2379", "4359", "4183", "4351", "5823", "9845", "158", "1660", "4112", "5151", "7691", "5094", "6201", "6499", "8880", "4571", "5687", "2119", "7778", "3927", "2770", "248", "8788", "2968", "2251", "9642", "5886", "2490", "1797", "8667", "8702", "7396", "6155", "4504", "2045", "7672", "2748", "7391", "7336", "3233", "7409", "6363", "9982", "1370", "2210", "8847", "3643", "6075", "1832", "2858", "9415", "2780", "306", "6037", "5116", "788", "667", "1158", "1169", "3223", "5", "8559", "1169", "6999", "9055", "6810", "7833", "8298", "3595", "5037", "1470", "1972", "5176", "7253", "649", "8143", "4229", "7295", "549", "1080", "6495", "8255", "4459", "5325", "4879", "6619", "782", "1081", "6788", "8740", "1477", "5896", "2268", "1532", "4027", "1105", "1047", "3973", "8303", "9360", "9597", "8578", "961", "2599", "5680", "2451", "5947", "9507", "8802", "7486", "4033", "5428", "9499", "2085", "7175", "6538", "8309", "3457", "18", "9177", "6607", "9956", "9798", "6352", "3994", "6662", "984", "711", "1291", "932", "3621", "2558", "9932", "1420", "9084", "1836", "132", "649", "5479", "2308", "1956", "3498", "5730", "1570", "8960", "876", "7640", "5583", "8327", "5692", "2584", "33", "8660", "4571", "8221", "8745", "2133", "6311", "9558", "5782", "4330", "8601", "8137", "87", "29", "7522", "4658", "2029", "3451", "4643", "6835", "2393", "2041", "2872", "2817", "8336", "7903", "6306", "5383", "8981", "238", "969", "1797", "2922", "8161", "6418", "2075", "2342", "7850", "6856", "1028", "5578", "5233", "8094", "7566", "4451", "8663", "7829", "6823", "1817", "5653", "9934", "9909", "2213", "7784", "9149", "6250", "5792", "4400", "9391", "6332", "4799", "7652", "6692", "3883", "4712", "3231", "4923", "4662", "5737", "3302", "2435", "5676", "4981", "7045", "9180", "3621", "7161", "1934", "8349", "3796", "1207", "4181", "9216", "8003", "2773", "6245", "3908", "7949", "5746", "6881", "125", "9016", "2861", "2291", "9352", "2689", "9610", "4229", "4805", "2155", "807", "6942", "7009", "1678", "9688", "3954", "8547", "8053", "3899", "2806", "8163", "8800", "5487", "1468", "2267", "8673", "8509", "1146", "9211", "282", "5273", "805", "5529", "329", "5798", "3634", "9023", "355", "7206", "6449", "3860", "696", "507", "9427", "5973", "1366", "6951", "806", "7349", "2695", "4913", "1235", "8461", "2258", "7929", "3557", "7031", "1867", "1690", "1337", "1770", "4499", "9257", "3630", "5432", "7603", "9337", "8736", "4617", "7091", "6613", "7739", "7552", "4176", "5233", "2923", "8345", "8520", "8851", "2900", "9739", "500", "4568", "223", "8522", "8950", "9479", "8729", "9988", "3297", "4638", "2443", "7762", "3114", "3054", "2227", "5361", "7915", "1551", "7206", "1924", "7462", "3428", "4550", "1900", "966", "4030", "229", "8062", "7893", "7576", "1632", "9226", "4931", "6012", "5198", "8840", "727", "3265", "4174", "6480", "512", "8052", "6338", "1343", "7977", "1190", "7440", "3915", "3818", "2765", "9065", "8947", "2077", "2118", "8925", "9308", "8726", "3002", "8427", "5438", "8966", "667", "1112", "8966", "3694", "4972", "578", "858", "2282", "58", "7942", "4959", "4253", "5021", "5780", "8589", "7268", "3441", "5756", "6894", "7144", "4960", "5429", "7152", "4126", "2508", "226", "6607", "5851", "7406", "5327", "4468", "3774", "5602", "733", "8892", "5998", "7887", "887", "7964", "7455", "4413", "2304", "2446", "5753", "1575", "6969", "4482", "5712", "9393", "8329", "6946", "215", "6458", "7325", "4808", "8097", "9923", "1407", "2911", "8816", "7062", "3734", "9217", "218", "1904", "6839", "6034", "9474", "831", "5309", "7487", "1594", "6069", "3779", "4357", "5655", "8997", "7662", "4509", "2342", "5842", "748", "1558", "7714", "8720", "3646", "1904", "8338", "5506", "8157", "1328", "1813", "1445", "7669", "2220", "6656", "230", "1838", "2534", "5481", "7333", "3636", "1609", "3571", "6934", "7284", "9972", "4775", "9677", "3400", "794", "9798", "7938", "482", "3804", "5910", "152", "763", "6548", "6098", "1488", "2550", "740", "5054", "6065", "3782", "4368", "963", "3739", "9005", "8194", "4981", "1932", "6174", "6235", "6645", "5176", "8358", "238", "7919", "1179", "9747", "3296", "9444", "1924", "337", "4400", "2671", "4667", "9563", "4943", "5001", "4587", "5097", "2669", "9671", "8126", "3239", "6987", "3397", "5195", "7299", "5912", "838", "7700", "2872", "9085", "3621", "8950", "7278", "9822", "5252", "6675", "4952", "4861", "2975", "5273", "7764", "9885", "3244", "9965", "6108", "2927"]
+,
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001";
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1221,31 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1299,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1422,6 +1420,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1706,41 +1785,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P145"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="5" width="1.08203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="48.58203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="44" customWidth="1"/>
+    <col min="4" max="5" width="1" style="8" customWidth="1"/>
+    <col min="6" max="6" width="61.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="68.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="5"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
+    <col min="17" max="21" width="11" style="5"/>
+    <col min="22" max="22" width="109.33203125" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1750,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1774,112 +1855,112 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="84">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
+    <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="409.5">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
+    <row r="4" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="22" t="s">
@@ -1887,679 +1968,687 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="84">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
+    <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="409.5">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
+    <row r="6" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="196.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:22" s="58" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>13</v>
-      </c>
       <c r="K7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="L7" s="66"/>
       <c r="M7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" ht="409.5">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="N7" s="67"/>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="182" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
+    <row r="9" spans="1:22" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="409.5">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
+    <row r="10" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="409.5">
-      <c r="A11" s="6" t="s">
-        <v>12</v>
+    <row r="11" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" ht="409.5">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
+      <c r="V11" s="68"/>
+    </row>
+    <row r="12" spans="1:22" ht="409" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" s="56" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" ht="117.5" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="L13" s="53"/>
+      <c r="M13" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="1:22" s="56" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="K14" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="53"/>
+      <c r="M14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" ht="409.5">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="409.5">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="409.5">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
+    <row r="16" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="409.5">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="409.5">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G18" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="52" t="s">
         <v>101</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="125" customHeight="1">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:15" s="58" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="K19" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="53"/>
+      <c r="M19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" s="54"/>
+      <c r="O19" s="57"/>
+    </row>
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>12</v>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>46</v>
+        <v>89</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1">
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="26"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -2573,10 +2662,10 @@
       <c r="N24" s="16"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1">
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -2590,10 +2679,10 @@
       <c r="N25" s="16"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1">
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="26"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -2607,10 +2696,10 @@
       <c r="N26" s="16"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1">
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -2624,10 +2713,10 @@
       <c r="N27" s="16"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1">
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
@@ -2641,10 +2730,10 @@
       <c r="N28" s="16"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1">
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="26"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
@@ -2658,10 +2747,10 @@
       <c r="N29" s="16"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="26"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -2675,10 +2764,10 @@
       <c r="N30" s="16"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1">
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -2692,10 +2781,10 @@
       <c r="N31" s="16"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="26"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -2709,10 +2798,10 @@
       <c r="N32" s="16"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="26"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -2726,10 +2815,10 @@
       <c r="N33" s="16"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1">
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="26"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -2743,10 +2832,10 @@
       <c r="N34" s="16"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1">
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
@@ -2760,10 +2849,10 @@
       <c r="N35" s="9"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="26"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
@@ -2777,10 +2866,10 @@
       <c r="N36" s="9"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="26"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
@@ -2794,10 +2883,10 @@
       <c r="N37" s="14"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="26"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
@@ -2811,10 +2900,10 @@
       <c r="N38" s="14"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
@@ -2828,10 +2917,10 @@
       <c r="N39" s="14"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -2845,7 +2934,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="23"/>
@@ -2862,7 +2951,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="23"/>
@@ -2879,7 +2968,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="43" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="23"/>
@@ -2896,7 +2985,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="23"/>
@@ -2913,7 +3002,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="45" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="23"/>
@@ -2930,7 +3019,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="12"/>
     </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="46" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="23"/>
@@ -2947,7 +3036,7 @@
       <c r="N46" s="16"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="17.5">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="23"/>
@@ -2963,7 +3052,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:15" ht="158.5" customHeight="1">
+    <row r="48" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="23"/>
@@ -2979,7 +3068,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14" ht="17.5">
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="23"/>
@@ -2995,7 +3084,7 @@
       <c r="M49" s="25"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="91.75" customHeight="1">
+    <row r="50" spans="1:14" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="23"/>
@@ -3011,7 +3100,7 @@
       <c r="M50" s="25"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="165" customHeight="1">
+    <row r="51" spans="1:14" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="23"/>
@@ -3027,7 +3116,7 @@
       <c r="M51" s="34"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="1:14" ht="108" customHeight="1">
+    <row r="52" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="23"/>
@@ -3043,7 +3132,7 @@
       <c r="M52" s="29"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="1:14" ht="101" customHeight="1">
+    <row r="53" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="23"/>
@@ -3059,10 +3148,10 @@
       <c r="M53" s="29"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="1:14" ht="88" customHeight="1">
+    <row r="54" spans="1:14" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="27"/>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -3075,10 +3164,10 @@
       <c r="M54" s="29"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="1:14" ht="98" customHeight="1">
+    <row r="55" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="26"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="27"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -3091,10 +3180,10 @@
       <c r="M55" s="29"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="1:14" ht="156" customHeight="1">
+    <row r="56" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="26"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
@@ -3107,10 +3196,10 @@
       <c r="M56" s="22"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="1:14" ht="172.5" customHeight="1">
+    <row r="57" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="26"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -3123,10 +3212,10 @@
       <c r="M57" s="22"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="1:14" ht="79" customHeight="1">
+    <row r="58" spans="1:14" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -3139,10 +3228,10 @@
       <c r="M58" s="22"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="1:14" ht="102.5" customHeight="1">
+    <row r="59" spans="1:14" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="26"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -3155,10 +3244,10 @@
       <c r="M59" s="22"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="1:14" ht="51" customHeight="1">
+    <row r="60" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="26"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -3171,10 +3260,10 @@
       <c r="M60" s="22"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="1:14" ht="121.25" customHeight="1">
+    <row r="61" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="26"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
@@ -3187,10 +3276,10 @@
       <c r="M61" s="22"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="1:14" ht="49.5" customHeight="1">
+    <row r="62" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="26"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -3203,10 +3292,10 @@
       <c r="M62" s="22"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="1:14" ht="56.4" customHeight="1">
+    <row r="63" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="26"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -3219,10 +3308,10 @@
       <c r="M63" s="22"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="1:14" ht="104" customHeight="1">
+    <row r="64" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="26"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
@@ -3235,10 +3324,10 @@
       <c r="M64" s="22"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="1:14" ht="95.4" customHeight="1">
+    <row r="65" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -3251,10 +3340,10 @@
       <c r="M65" s="22"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="1:14" ht="78" customHeight="1">
+    <row r="66" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -3267,10 +3356,10 @@
       <c r="M66" s="22"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="1:14" ht="17.5">
+    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="26"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -3283,10 +3372,10 @@
       <c r="M67" s="22"/>
       <c r="N67" s="9"/>
     </row>
-    <row r="68" spans="1:14" ht="17.5">
+    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="26"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -3299,10 +3388,10 @@
       <c r="M68" s="22"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="1:14" ht="17.5">
+    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="26"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -3315,10 +3404,10 @@
       <c r="M69" s="22"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="1:14" ht="17.5">
+    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="26"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -3331,10 +3420,10 @@
       <c r="M70" s="22"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="1:14" ht="17.5">
+    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="26"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -3347,10 +3436,10 @@
       <c r="M71" s="22"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="1:14" ht="17.5">
+    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="26"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
@@ -3363,10 +3452,10 @@
       <c r="M72" s="22"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="1:14" ht="17.5">
+    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="26"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -3379,10 +3468,10 @@
       <c r="M73" s="22"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="1:14" ht="17.5">
+    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -3395,10 +3484,10 @@
       <c r="M74" s="22"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="1:14" ht="108" customHeight="1">
+    <row r="75" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="26"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
@@ -3411,10 +3500,10 @@
       <c r="M75" s="22"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="1:14" ht="17.5">
+    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="26"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -3427,10 +3516,10 @@
       <c r="M76" s="22"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="1:14" ht="17.5">
+    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="26"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -3443,10 +3532,10 @@
       <c r="M77" s="22"/>
       <c r="N77" s="9"/>
     </row>
-    <row r="78" spans="1:14" ht="70.75" customHeight="1">
+    <row r="78" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="26"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
@@ -3459,10 +3548,10 @@
       <c r="M78" s="22"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="1:14" ht="17.5">
+    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="26"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
@@ -3475,10 +3564,10 @@
       <c r="M79" s="22"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="1:14" ht="17.5">
+    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="26"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
@@ -3491,10 +3580,10 @@
       <c r="M80" s="22"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="1:15" ht="17.5">
+    <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="26"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
@@ -3507,10 +3596,10 @@
       <c r="M81" s="22"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="1:15" ht="17.5">
+    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="26"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
@@ -3523,10 +3612,10 @@
       <c r="M82" s="22"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="1:15" ht="17.5">
+    <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="26"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
@@ -3539,10 +3628,10 @@
       <c r="M83" s="22"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="1:15" ht="17.5">
+    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="26"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -3555,7 +3644,7 @@
       <c r="M84" s="22"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:15" ht="17.5">
+    <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="23"/>
@@ -3571,10 +3660,10 @@
       <c r="M85" s="29"/>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="17.5">
+    <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="26"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="27"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
@@ -3587,10 +3676,10 @@
       <c r="M86" s="29"/>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:15" ht="17.5">
+    <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="26"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="27"/>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
@@ -3603,10 +3692,10 @@
       <c r="M87" s="29"/>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="17.5">
+    <row r="88" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="26"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="27"/>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
@@ -3619,10 +3708,10 @@
       <c r="M88" s="29"/>
       <c r="N88" s="11"/>
     </row>
-    <row r="89" spans="1:15" ht="17.5">
+    <row r="89" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="26"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="27"/>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -3635,10 +3724,10 @@
       <c r="M89" s="29"/>
       <c r="N89" s="11"/>
     </row>
-    <row r="90" spans="1:15" ht="17.5">
+    <row r="90" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="26"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="27"/>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -3651,10 +3740,10 @@
       <c r="M90" s="29"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:15" ht="88" customHeight="1">
+    <row r="91" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="26"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="27"/>
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
@@ -3667,10 +3756,10 @@
       <c r="M91" s="29"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="92" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="26"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="27"/>
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
@@ -3684,10 +3773,10 @@
       <c r="N92" s="11"/>
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="93" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="26"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="27"/>
       <c r="E93" s="26"/>
       <c r="F93" s="26"/>
@@ -3701,10 +3790,10 @@
       <c r="N93" s="11"/>
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="94" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="26"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="27"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
@@ -3718,7 +3807,7 @@
       <c r="N94" s="11"/>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="95" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="23"/>
@@ -3735,7 +3824,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="96" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="23"/>
@@ -3752,7 +3841,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="97" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="23"/>
@@ -3769,7 +3858,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="12"/>
     </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="98" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="23"/>
@@ -3786,10 +3875,10 @@
       <c r="N98" s="9"/>
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="99" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="26"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="27"/>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -3803,7 +3892,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="12"/>
     </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="100" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="23"/>
@@ -3820,7 +3909,7 @@
       <c r="N100" s="9"/>
       <c r="O100" s="12"/>
     </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="101" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="32"/>
@@ -3837,7 +3926,7 @@
       <c r="N101" s="9"/>
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="102" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="23"/>
@@ -3854,7 +3943,7 @@
       <c r="N102" s="9"/>
       <c r="O102" s="12"/>
     </row>
-    <row r="103" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="103" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="23"/>
@@ -3871,7 +3960,7 @@
       <c r="N103" s="9"/>
       <c r="O103" s="12"/>
     </row>
-    <row r="104" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="104" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="23"/>
@@ -3888,7 +3977,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="12"/>
     </row>
-    <row r="105" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="105" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="23"/>
@@ -3905,7 +3994,7 @@
       <c r="N105" s="9"/>
       <c r="O105" s="12"/>
     </row>
-    <row r="106" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="106" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="23"/>
@@ -3922,7 +4011,7 @@
       <c r="N106" s="9"/>
       <c r="O106" s="12"/>
     </row>
-    <row r="107" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="107" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="23"/>
@@ -3939,7 +4028,7 @@
       <c r="N107" s="9"/>
       <c r="O107" s="12"/>
     </row>
-    <row r="108" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1">
+    <row r="108" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="23"/>
@@ -3956,7 +4045,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="12"/>
     </row>
-    <row r="109" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="109" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="23"/>
@@ -3973,7 +4062,7 @@
       <c r="N109" s="9"/>
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1">
+    <row r="110" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="23"/>
@@ -3990,7 +4079,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="111" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="23"/>
@@ -4007,7 +4096,7 @@
       <c r="N111" s="11"/>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="112" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="23"/>
@@ -4024,7 +4113,7 @@
       <c r="N112" s="11"/>
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="1:15" s="13" customFormat="1" ht="132.65" customHeight="1">
+    <row r="113" spans="1:15" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="23"/>
@@ -4041,7 +4130,7 @@
       <c r="N113" s="11"/>
       <c r="O113" s="12"/>
     </row>
-    <row r="114" spans="1:15" s="13" customFormat="1" ht="120.65" customHeight="1">
+    <row r="114" spans="1:15" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="23"/>
@@ -4058,7 +4147,7 @@
       <c r="N114" s="11"/>
       <c r="O114" s="12"/>
     </row>
-    <row r="115" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="115" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="23"/>
@@ -4075,7 +4164,7 @@
       <c r="N115" s="9"/>
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1">
+    <row r="116" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="23"/>
@@ -4092,7 +4181,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="12"/>
     </row>
-    <row r="117" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1">
+    <row r="117" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="23"/>
@@ -4109,10 +4198,10 @@
       <c r="N117" s="14"/>
       <c r="O117" s="12"/>
     </row>
-    <row r="118" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="118" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="26"/>
+      <c r="C118" s="43"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
@@ -4126,10 +4215,10 @@
       <c r="N118" s="14"/>
       <c r="O118" s="12"/>
     </row>
-    <row r="119" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1">
+    <row r="119" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="26"/>
+      <c r="C119" s="43"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
@@ -4143,10 +4232,10 @@
       <c r="N119" s="14"/>
       <c r="O119" s="12"/>
     </row>
-    <row r="120" spans="1:15" s="13" customFormat="1" ht="63.65" customHeight="1">
+    <row r="120" spans="1:15" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="26"/>
+      <c r="C120" s="43"/>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
@@ -4160,10 +4249,10 @@
       <c r="N120" s="14"/>
       <c r="O120" s="12"/>
     </row>
-    <row r="121" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1">
+    <row r="121" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="26"/>
+      <c r="C121" s="43"/>
       <c r="D121" s="18"/>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
@@ -4177,10 +4266,10 @@
       <c r="N121" s="14"/>
       <c r="O121" s="12"/>
     </row>
-    <row r="122" spans="1:15" ht="45.65" customHeight="1">
+    <row r="122" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="26"/>
+      <c r="C122" s="43"/>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
@@ -4193,10 +4282,10 @@
       <c r="M122" s="25"/>
       <c r="N122" s="9"/>
     </row>
-    <row r="123" spans="1:15" ht="82.75" customHeight="1">
+    <row r="123" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="26"/>
+      <c r="C123" s="43"/>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
@@ -4209,7 +4298,7 @@
       <c r="M123" s="25"/>
       <c r="N123" s="9"/>
     </row>
-    <row r="124" spans="1:15" ht="17.5">
+    <row r="124" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="23"/>
@@ -4225,7 +4314,7 @@
       <c r="M124" s="25"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="1:15" ht="100.25" customHeight="1">
+    <row r="125" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="23"/>
@@ -4241,7 +4330,7 @@
       <c r="M125" s="25"/>
       <c r="N125" s="9"/>
     </row>
-    <row r="126" spans="1:15" ht="103.25" customHeight="1">
+    <row r="126" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="23"/>
@@ -4257,10 +4346,10 @@
       <c r="M126" s="25"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="1:15" ht="89.4" customHeight="1">
+    <row r="127" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="26"/>
+      <c r="C127" s="43"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -4273,10 +4362,10 @@
       <c r="M127" s="22"/>
       <c r="N127" s="9"/>
     </row>
-    <row r="128" spans="1:15" ht="77.400000000000006" customHeight="1">
+    <row r="128" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="26"/>
+      <c r="C128" s="43"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -4289,10 +4378,10 @@
       <c r="M128" s="22"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="1:16" ht="73.25" customHeight="1">
+    <row r="129" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="18"/>
+      <c r="C129" s="23"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
@@ -4307,10 +4396,10 @@
       <c r="O129" s="40"/>
       <c r="P129" s="38"/>
     </row>
-    <row r="130" spans="1:16" ht="102.5" customHeight="1">
+    <row r="130" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="18"/>
+      <c r="C130" s="23"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -4325,10 +4414,10 @@
       <c r="O130" s="40"/>
       <c r="P130" s="38"/>
     </row>
-    <row r="131" spans="1:16" ht="73.25" customHeight="1">
+    <row r="131" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="23"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
@@ -4341,7 +4430,7 @@
       <c r="M131" s="22"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:16" ht="67.75" customHeight="1">
+    <row r="132" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="23"/>
@@ -4359,7 +4448,7 @@
       <c r="O132" s="40"/>
       <c r="P132" s="38"/>
     </row>
-    <row r="133" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="133" spans="1:16" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="23"/>
@@ -4377,7 +4466,7 @@
       <c r="O133" s="40"/>
       <c r="P133" s="38"/>
     </row>
-    <row r="134" spans="1:16" ht="69.650000000000006" customHeight="1">
+    <row r="134" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="23"/>
@@ -4395,7 +4484,7 @@
       <c r="O134" s="40"/>
       <c r="P134" s="38"/>
     </row>
-    <row r="135" spans="1:16" ht="43.25" customHeight="1">
+    <row r="135" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="23"/>
@@ -4413,7 +4502,7 @@
       <c r="O135" s="40"/>
       <c r="P135" s="38"/>
     </row>
-    <row r="136" spans="1:16" ht="53.4" customHeight="1">
+    <row r="136" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="23"/>
@@ -4431,7 +4520,7 @@
       <c r="O136" s="30"/>
       <c r="P136" s="38"/>
     </row>
-    <row r="137" spans="1:16" ht="79.25" customHeight="1">
+    <row r="137" spans="1:16" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="23"/>
@@ -4449,7 +4538,7 @@
       <c r="O137" s="30"/>
       <c r="P137" s="38"/>
     </row>
-    <row r="138" spans="1:16" ht="120.65" customHeight="1">
+    <row r="138" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="23"/>
@@ -4467,10 +4556,10 @@
       <c r="O138" s="30"/>
       <c r="P138" s="38"/>
     </row>
-    <row r="139" spans="1:16" ht="94.75" customHeight="1">
+    <row r="139" spans="1:16" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="26"/>
+      <c r="C139" s="43"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
@@ -4483,10 +4572,10 @@
       <c r="M139" s="22"/>
       <c r="N139" s="9"/>
     </row>
-    <row r="140" spans="1:16" ht="67.75" customHeight="1">
+    <row r="140" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="26"/>
+      <c r="C140" s="43"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
@@ -4499,10 +4588,10 @@
       <c r="M140" s="22"/>
       <c r="N140" s="9"/>
     </row>
-    <row r="141" spans="1:16" ht="17.5">
+    <row r="141" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="26"/>
+      <c r="C141" s="43"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
@@ -4514,10 +4603,10 @@
       <c r="L141" s="20"/>
       <c r="M141" s="22"/>
     </row>
-    <row r="142" spans="1:16" ht="17.5">
+    <row r="142" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="26"/>
+      <c r="C142" s="43"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
@@ -4529,10 +4618,10 @@
       <c r="L142" s="20"/>
       <c r="M142" s="22"/>
     </row>
-    <row r="143" spans="1:16" ht="17.5">
+    <row r="143" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="26"/>
+      <c r="C143" s="43"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
@@ -4544,10 +4633,10 @@
       <c r="L143" s="20"/>
       <c r="M143" s="22"/>
     </row>
-    <row r="144" spans="1:16" ht="17.5">
+    <row r="144" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="26"/>
+      <c r="C144" s="43"/>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
@@ -4559,10 +4648,10 @@
       <c r="L144" s="20"/>
       <c r="M144" s="22"/>
     </row>
-    <row r="145" spans="1:13" ht="17.5">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="26"/>
+      <c r="C145" s="43"/>
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="-22000" windowWidth="38520" windowHeight="22000"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="userBatchqueryById" sheetId="2" r:id="rId1"/>
@@ -643,65 +643,6 @@
   </si>
   <si>
     <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-            "certNo": "2bb6fa304390f4ebdf1479372649b515",
-            "email": "a71249d4fe6f56f76de86b532ef74c1b",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId":693145221335302000,
-            "name": "小芳",
-            "mobileNo": "18899934567",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId":"1001",
 "userIds": ["005"]
 }</t>
@@ -725,51 +666,9 @@
   </si>
   <si>
     <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId": 693145221335302000,
-            "name": "小*",
-            "mobileNo": "188****4567",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "tenantId":"1001",
 "userIds": ["005"],
 "dataType":"2"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": [
-        {
-            "tenantId": "1001",
-            "tenantUserId": "005",
-            "userId":693145221335302000,
-            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
-            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
-            "certNo": "2bb6fa304390f4ebdf1479372649b515",
-            "email": "a71249d4fe6f56f76de86b532ef74c1b",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
-        }
-    ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -880,6 +779,118 @@
   </si>
   <si>
     <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"1",
+"dataDetail":"all"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataType":"4"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"tenantId":"1001",
+"userIds": ["005"],
+"dataDetail":"name"
+}
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds":[],
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <rPh sb="1" eb="2">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId": "1001",
+"userIds": ["4953", "005", "7899", "7453", "1088", "7487", "9898", "1501", "1975", "699", "2180", "8255", "4896", "9966", "1833", "225", "9654", "1170", "4100", "4344", "8779", "5991", "9132", "2431", "5878", "5591", "5393", "4360", "9207", "2631", "7847", "869", "9275", "4877", "3473", "7879", "8949", "5145", "3277", "6101", "8213", "4143", "7661", "8573", "7545", "4744", "417", "7409", "2070", "6488", "1278", "2722", "4861", "2035", "2431", "2975", "4359", "2322", "5652", "4915", "9309", "4442", "8426", "641", "9609", "3971", "9380", "8192", "9128", "4066", "9406", "7510", "7449", "8154", "5868", "6333", "3931", "4751", "8752", "2262", "5796", "2518", "6959", "2525", "4614", "1371", "193", "186", "1106", "9840", "2552", "4248", "6571", "5648", "2358", "7577", "2990", "7252", "1108", "6095", "443", "5057", "5391", "5705", "4031", "459", "3398", "3618", "8704", "2459", "2976", "1489", "3236", "674", "3729", "7823", "4422", "626", "9254", "9691", "9455", "5447", "4647", "54", "7062", "6886", "976", "7977", "6816", "7090", "636", "4029", "4633", "7054", "7274", "5255", "691", "8672", "5661", "1799", "4716", "7161", "7180", "7789", "8000", "9394", "2579", "2688", "6792", "8387", "8875", "2158", "3652", "8066", "9214", "5964", "8149", "7446", "2169", "917", "2611", "1172", "9375", "7471", "7139", "2110", "3700", "7213", "6052", "8672", "4939", "1965", "691", "6379", "3585", "2512", "6608", "3114", "5999", "495", "4922", "8164", "973", "4751", "8466", "8676", "4726", "2751", "9352", "2002", "3461", "575", "3516", "9015", "6649", "7975", "563", "5742", "5152", "6005", "9439", "764", "2226", "6512", "4660", "7674", "539", "6171", "5642", "498", "4938", "6610", "3250", "8597", "2895", "5937", "5063", "6982", "2559", "7412", "5546", "8905", "6774", "3708", "4415", "497", "5159", "7790", "9449", "6159", "6549", "5779", "130", "9937", "5828", "9104", "1940", "6649", "7656", "5503", "5577", "8715", "8159", "3809", "6115", "9643", "9744", "4363", "9367", "9153", "5188", "3400", "366", "5522", "6572", "4856", "1378", "4429", "7369", "8658", "7989", "1834", "6131", "8282", "3559", "1982", "7885", "7111", "415", "747", "6465", "2121", "5568", "2796", "883", "7815", "1207", "450", "3933", "5140", "3630", "3949", "9734", "1912", "6342", "3098", "5690", "5175", "3778", "2562", "6717", "3587", "1119", "462", "2569", "991", "5066", "6695", "4264", "3618", "7836", "103", "3742", "1973", "1873", "1303", "2534", "5366", "6721", "9352", "7142", "8027", "2062", "656", "8009", "9270", "7268", "9188", "6565", "1385", "1001", "3483", "1266", "7687", "5797", "2931", "1726", "2676", "2487", "6900", "8899", "5771", "968", "9259", "6941", "7058", "5222", "6846", "4313", "3686", "5112", "2020", "389", "4420", "838", "8407", "8595", "468", "5062", "6216", "6235", "9737", "2405", "8328", "2977", "248", "8491", "3942", "7686", "9675", "7652", "2290", "7463", "5898", "5711", "715", "5398", "9894", "5098", "8988", "9402", "2684", "4882", "1185", "4486", "6243", "1552", "6431", "6445", "3670", "153", "7658", "403", "507", "4403", "253", "3012", "5891", "702", "8769", "8868", "7098", "428", "6669", "6855", "2295", "3969", "1463", "1290", "9677", "4756", "5502", "5782", "4564", "9932", "6015", "8429", "5019", "1236", "1224", "5545", "9653", "1295", "8194", "4991", "9956", "2229", "5653", "181", "986", "8916", "5951", "4269", "7910", "9524", "4871", "9366", "1032", "4308", "2532", "9959", "1919", "1030", "7772", "7", "8110", "3104", "3558", "5760", "4124", "5008", "3174", "2886", "6234", "5637", "9316", "4185", "4543", "6706", "6462", "5495", "3164", "1437", "3917", "2196", "7733", "9418", "2636", "8157", "518", "3824", "5734", "9855", "3075", "1225", "2357", "9410", "328", "4869", "820", "8030", "3944", "7231", "5553", "5718", "1374", "1103", "6508", "6530", "4390", "4811", "7117", "9950", "5413", "2379", "4359", "4183", "4351", "5823", "9845", "158", "1660", "4112", "5151", "7691", "5094", "6201", "6499", "8880", "4571", "5687", "2119", "7778", "3927", "2770", "248", "8788", "2968", "2251", "9642", "5886", "2490", "1797", "8667", "8702", "7396", "6155", "4504", "2045", "7672", "2748", "7391", "7336", "3233", "7409", "6363", "9982", "1370", "2210", "8847", "3643", "6075", "1832", "2858", "9415", "2780", "306", "6037", "5116", "788", "667", "1158", "1169", "3223", "5", "8559", "1169", "6999", "9055", "6810", "7833", "8298", "3595", "5037", "1470", "1972", "5176", "7253", "649", "8143", "4229", "7295", "549", "1080", "6495", "8255", "4459", "5325", "4879", "6619", "782", "1081", "6788", "8740", "1477", "5896", "2268", "1532", "4027", "1105", "1047", "3973", "8303", "9360", "9597", "8578", "961", "2599", "5680", "2451", "5947", "9507", "8802", "7486", "4033", "5428", "9499", "2085", "7175", "6538", "8309", "3457", "18", "9177", "6607", "9956", "9798", "6352", "3994", "6662", "984", "711", "1291", "932", "3621", "2558", "9932", "1420", "9084", "1836", "132", "649", "5479", "2308", "1956", "3498", "5730", "1570", "8960", "876", "7640", "5583", "8327", "5692", "2584", "33", "8660", "4571", "8221", "8745", "2133", "6311", "9558", "5782", "4330", "8601", "8137", "87", "29", "7522", "4658", "2029", "3451", "4643", "6835", "2393", "2041", "2872", "2817", "8336", "7903", "6306", "5383", "8981", "238", "969", "1797", "2922", "8161", "6418", "2075", "2342", "7850", "6856", "1028", "5578", "5233", "8094", "7566", "4451", "8663", "7829", "6823", "1817", "5653", "9934", "9909", "2213", "7784", "9149", "6250", "5792", "4400", "9391", "6332", "4799", "7652", "6692", "3883", "4712", "3231", "4923", "4662", "5737", "3302", "2435", "5676", "4981", "7045", "9180", "3621", "7161", "1934", "8349", "3796", "1207", "4181", "9216", "8003", "2773", "6245", "3908", "7949", "5746", "6881", "125", "9016", "2861", "2291", "9352", "2689", "9610", "4229", "4805", "2155", "807", "6942", "7009", "1678", "9688", "3954", "8547", "8053", "3899", "2806", "8163", "8800", "5487", "1468", "2267", "8673", "8509", "1146", "9211", "282", "5273", "805", "5529", "329", "5798", "3634", "9023", "355", "7206", "6449", "3860", "696", "507", "9427", "5973", "1366", "6951", "806", "7349", "2695", "4913", "1235", "8461", "2258", "7929", "3557", "7031", "1867", "1690", "1337", "1770", "4499", "9257", "3630", "5432", "7603", "9337", "8736", "4617", "7091", "6613", "7739", "7552", "4176", "5233", "2923", "8345", "8520", "8851", "2900", "9739", "500", "4568", "223", "8522", "8950", "9479", "8729", "9988", "3297", "4638", "2443", "7762", "3114", "3054", "2227", "5361", "7915", "1551", "7206", "1924", "7462", "3428", "4550", "1900", "966", "4030", "229", "8062", "7893", "7576", "1632", "9226", "4931", "6012", "5198", "8840", "727", "3265", "4174", "6480", "512", "8052", "6338", "1343", "7977", "1190", "7440", "3915", "3818", "2765", "9065", "8947", "2077", "2118", "8925", "9308", "8726", "3002", "8427", "5438", "8966", "667", "1112", "8966", "3694", "4972", "578", "858", "2282", "58", "7942", "4959", "4253", "5021", "5780", "8589", "7268", "3441", "5756", "6894", "7144", "4960", "5429", "7152", "4126", "2508", "226", "6607", "5851", "7406", "5327", "4468", "3774", "5602", "733", "8892", "5998", "7887", "887", "7964", "7455", "4413", "2304", "2446", "5753", "1575", "6969", "4482", "5712", "9393", "8329", "6946", "215", "6458", "7325", "4808", "8097", "9923", "1407", "2911", "8816", "7062", "3734", "9217", "218", "1904", "6839", "6034", "9474", "831", "5309", "7487", "1594", "6069", "3779", "4357", "5655", "8997", "7662", "4509", "2342", "5842", "748", "1558", "7714", "8720", "3646", "1904", "8338", "5506", "8157", "1328", "1813", "1445", "7669", "2220", "6656", "230", "1838", "2534", "5481", "7333", "3636", "1609", "3571", "6934", "7284", "9972", "4775", "9677", "3400", "794", "9798", "7938", "482", "3804", "5910", "152", "763", "6548", "6098", "1488", "2550", "740", "5054", "6065", "3782", "4368", "963", "3739", "9005", "8194", "4981", "1932", "6174", "6235", "6645", "5176", "8358", "238", "7919", "1179", "9747", "3296", "9444", "1924", "337", "4400", "2671", "4667", "9563", "4943", "5001", "4587", "5097", "2669", "9671", "8126", "3239", "6987", "3397", "5195", "7299", "5912", "838", "7700", "2872", "9085", "3621", "8950", "7278", "9822", "5252", "6675", "4952", "4861", "2975", "5273", "7764", "9885", "3244", "9965", "6108", "2927"]
+,
+"dataType":"1",
+"dataDetail":"mobileNo,name"
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
+</t>
+  </si>
+  <si>
+    <t>{
     "resCode": "E0000",
     "resMsg": "成功",
     "successful": 1,
@@ -888,12 +899,36 @@
             "tenantId": "1001",
             "tenantUserId": "005",
             "userId": 693145221335302000,
-            "name": "小*",
-            "mobileNo": "188****4567",
-            "certNo": "3412**********0000",
-            "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "name": "小芳",
+            "mobileNo": "18899934567",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId":693145221335302000,
+            "name": "小芳",
+            "mobileNo": "18899934567",
+                        "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
@@ -913,8 +948,8 @@
             "mobileNo": "188****4567",
             "certNo": "3412**********0000",
             "email": "1234***@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+                        "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
@@ -934,8 +969,88 @@
             "mobileNo": "18899934567",
             "certNo": "341222199303040000",
             "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId":693145221335302000,
+            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
+            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
+            "certNo": "2bb6fa304390f4ebdf1479372649b515",
+            "email": "a71249d4fe6f56f76de86b532ef74c1b",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "小*",
+            "mobileNo": "188****4567",
+            "certNo": "3412**********0000",
+            "email": "1234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": [
+        {
+            "tenantId": "1001",
+            "tenantUserId": "005",
+            "userId": 693145221335302000,
+            "name": "98ac8b2e18dbe4d5d48476c3e4a6117a",
+            "mobileNo": "484e9186760f37b5ac9b12673bc6fbf6",
+            "certNo": "2bb6fa304390f4ebdf1479372649b515",
+            "email": "a71249d4fe6f56f76de86b532ef74c1b",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
@@ -955,19 +1070,10 @@
             "mobileNo": "18899934567",
             "certNo": "341222199303040000",
             "email": "1234567@126.com",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"1001",
-"userIds": ["005"],
-"dataType":"1",
-"dataDetail":"all"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -981,21 +1087,16 @@
             "tenantId": "1001",
             "tenantUserId": "005",
             "userId": 693145221335302000,
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "name": "小*",
+            "mobileNo": "188****4567",
+            "certNo": "3412**********0000",
+            "email": "1234***@126.com",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1004,62 +1105,17 @@
     "successful": 1,
     "data": [
         {
-            "tenantId": "CONSUME",
+            "tenantId": "1001",
             "tenantUserId": "005",
-            "userId": 693145221335302000,
+            "userId":693145221335302000,
             "name": "小芳",
-            "mobileNo": "5",
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "mobileNo": "18899934567",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"1001",
-"userIds": ["005"],
-"dataType":"4"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"tenantId":"1001",
-"userIds": ["005"],
-"dataDetail":"name"
-}
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1071,67 +1127,14 @@
             "tenantId": "1001",
             "tenantUserId": "005",
             "userId": 693145221335302000,
-            "createTime": "2020-03-27 16:11:39",
-            "updateTime": "2020-03-27 16:11:39"
+            "name": "小芳",
+            "mobileNo": "5",
+            "createTime": "2020-03-28 21:49:59",
+            "updateTime": "2020-03-28 21:49:59"
         }
     ]
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userIds":[],
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <rPh sb="1" eb="2">
-      <t>ji</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId": "1001",
-"userIds": ["4953", "005", "7899", "7453", "1088", "7487", "9898", "1501", "1975", "699", "2180", "8255", "4896", "9966", "1833", "225", "9654", "1170", "4100", "4344", "8779", "5991", "9132", "2431", "5878", "5591", "5393", "4360", "9207", "2631", "7847", "869", "9275", "4877", "3473", "7879", "8949", "5145", "3277", "6101", "8213", "4143", "7661", "8573", "7545", "4744", "417", "7409", "2070", "6488", "1278", "2722", "4861", "2035", "2431", "2975", "4359", "2322", "5652", "4915", "9309", "4442", "8426", "641", "9609", "3971", "9380", "8192", "9128", "4066", "9406", "7510", "7449", "8154", "5868", "6333", "3931", "4751", "8752", "2262", "5796", "2518", "6959", "2525", "4614", "1371", "193", "186", "1106", "9840", "2552", "4248", "6571", "5648", "2358", "7577", "2990", "7252", "1108", "6095", "443", "5057", "5391", "5705", "4031", "459", "3398", "3618", "8704", "2459", "2976", "1489", "3236", "674", "3729", "7823", "4422", "626", "9254", "9691", "9455", "5447", "4647", "54", "7062", "6886", "976", "7977", "6816", "7090", "636", "4029", "4633", "7054", "7274", "5255", "691", "8672", "5661", "1799", "4716", "7161", "7180", "7789", "8000", "9394", "2579", "2688", "6792", "8387", "8875", "2158", "3652", "8066", "9214", "5964", "8149", "7446", "2169", "917", "2611", "1172", "9375", "7471", "7139", "2110", "3700", "7213", "6052", "8672", "4939", "1965", "691", "6379", "3585", "2512", "6608", "3114", "5999", "495", "4922", "8164", "973", "4751", "8466", "8676", "4726", "2751", "9352", "2002", "3461", "575", "3516", "9015", "6649", "7975", "563", "5742", "5152", "6005", "9439", "764", "2226", "6512", "4660", "7674", "539", "6171", "5642", "498", "4938", "6610", "3250", "8597", "2895", "5937", "5063", "6982", "2559", "7412", "5546", "8905", "6774", "3708", "4415", "497", "5159", "7790", "9449", "6159", "6549", "5779", "130", "9937", "5828", "9104", "1940", "6649", "7656", "5503", "5577", "8715", "8159", "3809", "6115", "9643", "9744", "4363", "9367", "9153", "5188", "3400", "366", "5522", "6572", "4856", "1378", "4429", "7369", "8658", "7989", "1834", "6131", "8282", "3559", "1982", "7885", "7111", "415", "747", "6465", "2121", "5568", "2796", "883", "7815", "1207", "450", "3933", "5140", "3630", "3949", "9734", "1912", "6342", "3098", "5690", "5175", "3778", "2562", "6717", "3587", "1119", "462", "2569", "991", "5066", "6695", "4264", "3618", "7836", "103", "3742", "1973", "1873", "1303", "2534", "5366", "6721", "9352", "7142", "8027", "2062", "656", "8009", "9270", "7268", "9188", "6565", "1385", "1001", "3483", "1266", "7687", "5797", "2931", "1726", "2676", "2487", "6900", "8899", "5771", "968", "9259", "6941", "7058", "5222", "6846", "4313", "3686", "5112", "2020", "389", "4420", "838", "8407", "8595", "468", "5062", "6216", "6235", "9737", "2405", "8328", "2977", "248", "8491", "3942", "7686", "9675", "7652", "2290", "7463", "5898", "5711", "715", "5398", "9894", "5098", "8988", "9402", "2684", "4882", "1185", "4486", "6243", "1552", "6431", "6445", "3670", "153", "7658", "403", "507", "4403", "253", "3012", "5891", "702", "8769", "8868", "7098", "428", "6669", "6855", "2295", "3969", "1463", "1290", "9677", "4756", "5502", "5782", "4564", "9932", "6015", "8429", "5019", "1236", "1224", "5545", "9653", "1295", "8194", "4991", "9956", "2229", "5653", "181", "986", "8916", "5951", "4269", "7910", "9524", "4871", "9366", "1032", "4308", "2532", "9959", "1919", "1030", "7772", "7", "8110", "3104", "3558", "5760", "4124", "5008", "3174", "2886", "6234", "5637", "9316", "4185", "4543", "6706", "6462", "5495", "3164", "1437", "3917", "2196", "7733", "9418", "2636", "8157", "518", "3824", "5734", "9855", "3075", "1225", "2357", "9410", "328", "4869", "820", "8030", "3944", "7231", "5553", "5718", "1374", "1103", "6508", "6530", "4390", "4811", "7117", "9950", "5413", "2379", "4359", "4183", "4351", "5823", "9845", "158", "1660", "4112", "5151", "7691", "5094", "6201", "6499", "8880", "4571", "5687", "2119", "7778", "3927", "2770", "248", "8788", "2968", "2251", "9642", "5886", "2490", "1797", "8667", "8702", "7396", "6155", "4504", "2045", "7672", "2748", "7391", "7336", "3233", "7409", "6363", "9982", "1370", "2210", "8847", "3643", "6075", "1832", "2858", "9415", "2780", "306", "6037", "5116", "788", "667", "1158", "1169", "3223", "5", "8559", "1169", "6999", "9055", "6810", "7833", "8298", "3595", "5037", "1470", "1972", "5176", "7253", "649", "8143", "4229", "7295", "549", "1080", "6495", "8255", "4459", "5325", "4879", "6619", "782", "1081", "6788", "8740", "1477", "5896", "2268", "1532", "4027", "1105", "1047", "3973", "8303", "9360", "9597", "8578", "961", "2599", "5680", "2451", "5947", "9507", "8802", "7486", "4033", "5428", "9499", "2085", "7175", "6538", "8309", "3457", "18", "9177", "6607", "9956", "9798", "6352", "3994", "6662", "984", "711", "1291", "932", "3621", "2558", "9932", "1420", "9084", "1836", "132", "649", "5479", "2308", "1956", "3498", "5730", "1570", "8960", "876", "7640", "5583", "8327", "5692", "2584", "33", "8660", "4571", "8221", "8745", "2133", "6311", "9558", "5782", "4330", "8601", "8137", "87", "29", "7522", "4658", "2029", "3451", "4643", "6835", "2393", "2041", "2872", "2817", "8336", "7903", "6306", "5383", "8981", "238", "969", "1797", "2922", "8161", "6418", "2075", "2342", "7850", "6856", "1028", "5578", "5233", "8094", "7566", "4451", "8663", "7829", "6823", "1817", "5653", "9934", "9909", "2213", "7784", "9149", "6250", "5792", "4400", "9391", "6332", "4799", "7652", "6692", "3883", "4712", "3231", "4923", "4662", "5737", "3302", "2435", "5676", "4981", "7045", "9180", "3621", "7161", "1934", "8349", "3796", "1207", "4181", "9216", "8003", "2773", "6245", "3908", "7949", "5746", "6881", "125", "9016", "2861", "2291", "9352", "2689", "9610", "4229", "4805", "2155", "807", "6942", "7009", "1678", "9688", "3954", "8547", "8053", "3899", "2806", "8163", "8800", "5487", "1468", "2267", "8673", "8509", "1146", "9211", "282", "5273", "805", "5529", "329", "5798", "3634", "9023", "355", "7206", "6449", "3860", "696", "507", "9427", "5973", "1366", "6951", "806", "7349", "2695", "4913", "1235", "8461", "2258", "7929", "3557", "7031", "1867", "1690", "1337", "1770", "4499", "9257", "3630", "5432", "7603", "9337", "8736", "4617", "7091", "6613", "7739", "7552", "4176", "5233", "2923", "8345", "8520", "8851", "2900", "9739", "500", "4568", "223", "8522", "8950", "9479", "8729", "9988", "3297", "4638", "2443", "7762", "3114", "3054", "2227", "5361", "7915", "1551", "7206", "1924", "7462", "3428", "4550", "1900", "966", "4030", "229", "8062", "7893", "7576", "1632", "9226", "4931", "6012", "5198", "8840", "727", "3265", "4174", "6480", "512", "8052", "6338", "1343", "7977", "1190", "7440", "3915", "3818", "2765", "9065", "8947", "2077", "2118", "8925", "9308", "8726", "3002", "8427", "5438", "8966", "667", "1112", "8966", "3694", "4972", "578", "858", "2282", "58", "7942", "4959", "4253", "5021", "5780", "8589", "7268", "3441", "5756", "6894", "7144", "4960", "5429", "7152", "4126", "2508", "226", "6607", "5851", "7406", "5327", "4468", "3774", "5602", "733", "8892", "5998", "7887", "887", "7964", "7455", "4413", "2304", "2446", "5753", "1575", "6969", "4482", "5712", "9393", "8329", "6946", "215", "6458", "7325", "4808", "8097", "9923", "1407", "2911", "8816", "7062", "3734", "9217", "218", "1904", "6839", "6034", "9474", "831", "5309", "7487", "1594", "6069", "3779", "4357", "5655", "8997", "7662", "4509", "2342", "5842", "748", "1558", "7714", "8720", "3646", "1904", "8338", "5506", "8157", "1328", "1813", "1445", "7669", "2220", "6656", "230", "1838", "2534", "5481", "7333", "3636", "1609", "3571", "6934", "7284", "9972", "4775", "9677", "3400", "794", "9798", "7938", "482", "3804", "5910", "152", "763", "6548", "6098", "1488", "2550", "740", "5054", "6065", "3782", "4368", "963", "3739", "9005", "8194", "4981", "1932", "6174", "6235", "6645", "5176", "8358", "238", "7919", "1179", "9747", "3296", "9444", "1924", "337", "4400", "2671", "4667", "9563", "4943", "5001", "4587", "5097", "2669", "9671", "8126", "3239", "6987", "3397", "5195", "7299", "5912", "838", "7700", "2872", "9085", "3621", "8950", "7278", "9822", "5252", "6675", "4952", "4861", "2975", "5273", "7764", "9885", "3244", "9965", "6108", "2927"]
-,
-"dataType":"1",
-"dataDetail":"mobileNo,name"
-}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "005" and tenant_id = "1001";
-</t>
   </si>
 </sst>
 </file>
@@ -1787,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1866,10 +1869,10 @@
     </row>
     <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>35</v>
@@ -1877,10 +1880,10 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>14</v>
@@ -1896,13 +1899,13 @@
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -1934,7 +1937,7 @@
     </row>
     <row r="4" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
@@ -1945,10 +1948,10 @@
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="41" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -1964,13 +1967,13 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="22" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
@@ -2002,7 +2005,7 @@
     </row>
     <row r="6" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -2013,10 +2016,10 @@
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="41" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -2031,14 +2034,14 @@
         <v>71</v>
       </c>
       <c r="L6" s="20"/>
-      <c r="M6" s="22" t="s">
-        <v>75</v>
+      <c r="M6" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:22" s="58" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>54</v>
@@ -2049,10 +2052,10 @@
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
       <c r="F7" s="46" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>14</v>
@@ -2064,18 +2067,18 @@
         <v>12</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="22" t="s">
-        <v>75</v>
+      <c r="M7" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="N7" s="67"/>
       <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -2086,10 +2089,10 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
@@ -2101,17 +2104,17 @@
         <v>12</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="22" t="s">
-        <v>96</v>
+      <c r="M8" s="25" t="s">
+        <v>114</v>
       </c>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
@@ -2122,10 +2125,10 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -2137,17 +2140,17 @@
         <v>12</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="22" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>57</v>
@@ -2158,10 +2161,10 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
@@ -2173,17 +2176,17 @@
         <v>12</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>58</v>
@@ -2194,10 +2197,10 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
@@ -2209,18 +2212,18 @@
         <v>12</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="N11" s="9"/>
       <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>59</v>
@@ -2231,10 +2234,10 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="41" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>14</v>
@@ -2246,17 +2249,17 @@
         <v>12</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:22" s="56" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>60</v>
@@ -2267,10 +2270,10 @@
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="48" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>14</v>
@@ -2282,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L13" s="53"/>
       <c r="M13" s="52" t="s">
@@ -2293,7 +2296,7 @@
     </row>
     <row r="14" spans="1:22" s="56" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>61</v>
@@ -2304,10 +2307,10 @@
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>14</v>
@@ -2319,18 +2322,18 @@
         <v>12</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="52" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N14" s="54"/>
       <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>62</v>
@@ -2341,10 +2344,10 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>14</v>
@@ -2356,18 +2359,18 @@
         <v>12</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>63</v>
@@ -2378,10 +2381,10 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>14</v>
@@ -2393,18 +2396,18 @@
         <v>12</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -2415,10 +2418,10 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>14</v>
@@ -2430,18 +2433,18 @@
         <v>12</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -2452,10 +2455,10 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="41" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>14</v>
@@ -2467,18 +2470,18 @@
         <v>12</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="52" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="58" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>66</v>
@@ -2489,10 +2492,10 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="48" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>14</v>
@@ -2504,18 +2507,18 @@
         <v>12</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L19" s="53"/>
       <c r="M19" s="52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="57"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -2537,21 +2540,21 @@
         <v>12</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>44</v>
@@ -2570,21 +2573,21 @@
         <v>12</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>13</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="61" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C23" s="43" t="s">
         <v>45</v>
@@ -2636,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="29" t="s">

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userBatchqueryById/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Data_Center_Platform/src/main/resources/caseconf/userBatchqueryById/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -856,15 +856,6 @@
 "dataDetail":"mobileNo,name"
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
@@ -1118,6 +1109,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "resCode": "E0000",
     "resMsg": "成功",
@@ -1128,7 +1128,7 @@
             "tenantUserId": "005",
             "userId": 693145221335302000,
             "name": "小芳",
-            "mobileNo": "5",
+            "mobileNo": "18899934567",
             "createTime": "2020-03-28 21:49:59",
             "updateTime": "2020-03-28 21:49:59"
         }
@@ -1790,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>81</v>
@@ -1883,7 +1883,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>14</v>
@@ -1899,13 +1899,13 @@
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="4" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
@@ -1948,10 +1948,10 @@
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="41" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="6" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -2019,7 +2019,7 @@
         <v>93</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -2035,14 +2035,12 @@
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:22" s="58" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>101</v>
-      </c>
+      <c r="A7" s="61"/>
       <c r="B7" s="62" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>92</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>14</v>
@@ -2067,18 +2065,18 @@
         <v>12</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N7" s="67"/>
       <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -2092,7 +2090,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
@@ -2108,13 +2106,13 @@
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
@@ -2128,7 +2126,7 @@
         <v>94</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -2144,13 +2142,13 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>57</v>
@@ -2164,7 +2162,7 @@
         <v>94</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
@@ -2180,13 +2178,13 @@
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>58</v>
@@ -2200,7 +2198,7 @@
         <v>94</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>14</v>
@@ -2216,14 +2214,14 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="9"/>
       <c r="V11" s="68"/>
     </row>
     <row r="12" spans="1:22" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>59</v>
@@ -2237,7 +2235,7 @@
         <v>94</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>14</v>
@@ -2253,13 +2251,13 @@
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:22" s="56" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>60</v>
@@ -2273,7 +2271,7 @@
         <v>94</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>14</v>
@@ -2296,7 +2294,7 @@
     </row>
     <row r="14" spans="1:22" s="56" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>61</v>
@@ -2310,7 +2308,7 @@
         <v>92</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>14</v>
@@ -2326,14 +2324,14 @@
       </c>
       <c r="L14" s="53"/>
       <c r="M14" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="54"/>
       <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>62</v>
@@ -2347,7 +2345,7 @@
         <v>92</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>14</v>
@@ -2363,14 +2361,14 @@
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>63</v>
@@ -2384,7 +2382,7 @@
         <v>92</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>14</v>
@@ -2400,14 +2398,14 @@
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -2421,7 +2419,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>14</v>
@@ -2444,7 +2442,7 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -2458,7 +2456,7 @@
         <v>97</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>14</v>
@@ -2474,14 +2472,14 @@
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="58" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>66</v>
@@ -2495,7 +2493,7 @@
         <v>92</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>14</v>
@@ -2511,14 +2509,14 @@
       </c>
       <c r="L19" s="53"/>
       <c r="M19" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="57"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -2551,7 +2549,7 @@
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>82</v>
@@ -2584,7 +2582,7 @@
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>83</v>
@@ -2617,7 +2615,7 @@
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>84</v>

--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
   <si>
     <t>lable</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -796,15 +796,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -830,15 +821,6 @@
 }
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -1136,12 +1118,78 @@
 }</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/batchQueryById</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_centeruserInfo:tenantId:tenantUserId:1001:005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user_centeruserInfo:tenantId:tenantUserId:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>005</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,13 +1289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1446,9 +1495,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1488,9 +1534,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1549,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1788,11 +1835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1801,23 +1848,23 @@
     <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="44" customWidth="1"/>
     <col min="4" max="5" width="1" style="8" customWidth="1"/>
-    <col min="6" max="6" width="61.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="68.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
-    <col min="17" max="21" width="11" style="5"/>
-    <col min="22" max="22" width="109.33203125" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="5"/>
+    <col min="6" max="6" width="81.1640625" style="8" customWidth="1"/>
+    <col min="7" max="8" width="68.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="29.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="43.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15" style="8" customWidth="1"/>
+    <col min="17" max="17" width="65.83203125" style="5" customWidth="1"/>
+    <col min="18" max="22" width="11" style="5"/>
+    <col min="23" max="23" width="109.33203125" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,37 +1886,40 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>100</v>
+    <row r="2" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>81</v>
@@ -1880,32 +1930,35 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" ht="90" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>100</v>
+      <c r="M2" s="20"/>
+      <c r="N2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -1917,27 +1970,28 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>100</v>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>51</v>
@@ -1948,32 +2002,35 @@
       <c r="D4" s="27"/>
       <c r="E4" s="26"/>
       <c r="F4" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="K4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>100</v>
+      <c r="M4" s="20"/>
+      <c r="N4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
@@ -1985,27 +2042,30 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="K5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>100</v>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -2016,67 +2076,71 @@
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="41" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:22" s="58" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" s="57" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="46" t="s">
         <v>92</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="J7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="K7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="67"/>
-      <c r="O7" s="57"/>
-    </row>
-    <row r="8" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>100</v>
+      <c r="L7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="64"/>
+      <c r="N7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="65"/>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -2087,32 +2151,35 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="K8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="L8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>100</v>
+      <c r="M8" s="20"/>
+      <c r="N8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
@@ -2123,32 +2190,35 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>100</v>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>57</v>
@@ -2159,32 +2229,35 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="K10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="L10" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
-        <v>100</v>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>58</v>
@@ -2195,33 +2268,36 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="L11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="V11" s="68"/>
-    </row>
-    <row r="12" spans="1:22" ht="409" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>100</v>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="1:23" ht="409" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>59</v>
@@ -2232,32 +2308,35 @@
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="K12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="L12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" s="56" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>100</v>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" s="55" customFormat="1" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>60</v>
@@ -2268,33 +2347,36 @@
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="52"/>
+      <c r="N13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-    </row>
-    <row r="14" spans="1:22" s="56" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
-        <v>100</v>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" s="55" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>61</v>
@@ -2308,30 +2390,33 @@
         <v>92</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="J14" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="K14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="52" t="s">
+      <c r="L14" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
-        <v>100</v>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A15" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>62</v>
@@ -2345,30 +2430,33 @@
         <v>92</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="K15" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="L15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
-        <v>100</v>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>63</v>
@@ -2382,30 +2470,33 @@
         <v>92</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="L16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
-        <v>100</v>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A17" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -2416,33 +2507,36 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="41" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="K17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="L17" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="20"/>
+      <c r="N17" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>100</v>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+      <c r="A18" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -2453,33 +2547,36 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="41" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="K18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" s="58" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>100</v>
+      <c r="L18" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" s="57" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>66</v>
@@ -2493,30 +2590,33 @@
         <v>92</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="J19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="K19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="L19" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="53"/>
-      <c r="M19" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="57"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>100</v>
+      <c r="M19" s="52"/>
+      <c r="N19" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="53"/>
+      <c r="P19" s="56"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -2528,28 +2628,29 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="19"/>
+      <c r="I20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="K20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="L20" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="20"/>
+      <c r="N20" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>100</v>
+      <c r="O20" s="9"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>82</v>
@@ -2561,28 +2662,29 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="K21" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="L21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="20"/>
+      <c r="N21" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
         <v>98</v>
-      </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>100</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>83</v>
@@ -2594,28 +2696,29 @@
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="26"/>
+      <c r="I22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="K22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="L22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>100</v>
+      <c r="O22" s="9"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="60" t="s">
+        <v>98</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>84</v>
@@ -2627,26 +2730,27 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="J23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29" t="s">
+      <c r="L23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="16"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="43"/>
@@ -2654,16 +2758,17 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="19"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="43"/>
@@ -2671,16 +2776,17 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="19"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="43"/>
@@ -2688,16 +2794,17 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="19"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="43"/>
@@ -2705,16 +2812,17 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="19"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="43"/>
@@ -2722,16 +2830,17 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="33"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="43"/>
@@ -2739,16 +2848,17 @@
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="33"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="43"/>
@@ -2756,16 +2866,17 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="33"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="43"/>
@@ -2773,16 +2884,17 @@
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="33"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="43"/>
@@ -2790,16 +2902,17 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H32" s="33"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="43"/>
@@ -2807,16 +2920,17 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="33"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="43"/>
@@ -2824,16 +2938,17 @@
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="33"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:16" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="43"/>
@@ -2841,16 +2956,17 @@
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H35" s="33"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="43"/>
@@ -2858,16 +2974,17 @@
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H36" s="33"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="43"/>
@@ -2875,16 +2992,17 @@
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H37" s="33"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="43"/>
@@ -2892,16 +3010,17 @@
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H38" s="33"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="43"/>
@@ -2909,16 +3028,17 @@
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H39" s="33"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="43"/>
@@ -2926,16 +3046,17 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H40" s="19"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="23"/>
@@ -2943,16 +3064,17 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H41" s="19"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="23"/>
@@ -2960,16 +3082,17 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H42" s="19"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="23"/>
@@ -2977,16 +3100,17 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="19"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:16" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="23"/>
@@ -2994,16 +3118,17 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H44" s="19"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="23"/>
@@ -3011,16 +3136,17 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H45" s="19"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="23"/>
@@ -3028,16 +3154,17 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H46" s="19"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="12"/>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="23"/>
@@ -3045,15 +3172,16 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="19"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="23"/>
@@ -3061,15 +3189,16 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H48" s="19"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="23"/>
@@ -3077,15 +3206,16 @@
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="19"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="23"/>
@@ -3093,15 +3223,16 @@
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="19"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="11"/>
+    </row>
+    <row r="51" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="23"/>
@@ -3109,15 +3240,16 @@
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="19"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="23"/>
@@ -3125,15 +3257,16 @@
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="19"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="23"/>
@@ -3141,15 +3274,16 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="19"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="43"/>
@@ -3157,15 +3291,16 @@
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="26"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="43"/>
@@ -3173,15 +3308,16 @@
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="26"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="43"/>
@@ -3189,15 +3325,16 @@
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="1:14" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="19"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="9"/>
+    </row>
+    <row r="57" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="43"/>
@@ -3205,15 +3342,16 @@
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="1:14" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="19"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="43"/>
@@ -3221,15 +3359,16 @@
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="1:14" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="19"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="9"/>
+    </row>
+    <row r="59" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="43"/>
@@ -3237,15 +3376,16 @@
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="19"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="9"/>
+    </row>
+    <row r="60" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="43"/>
@@ -3253,15 +3393,16 @@
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="19"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="1:15" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="43"/>
@@ -3269,15 +3410,16 @@
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="19"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="43"/>
@@ -3285,15 +3427,16 @@
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="19"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="9"/>
+    </row>
+    <row r="63" spans="1:15" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="43"/>
@@ -3301,15 +3444,16 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="19"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="9"/>
+    </row>
+    <row r="64" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="43"/>
@@ -3317,15 +3461,16 @@
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="19"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="9"/>
+    </row>
+    <row r="65" spans="1:15" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="43"/>
@@ -3333,15 +3478,16 @@
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="19"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="9"/>
+    </row>
+    <row r="66" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="43"/>
@@ -3349,15 +3495,16 @@
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="9"/>
-    </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H66" s="19"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="67" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="43"/>
@@ -3365,15 +3512,16 @@
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H67" s="19"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="43"/>
@@ -3381,15 +3529,16 @@
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H68" s="19"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="9"/>
+    </row>
+    <row r="69" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="43"/>
@@ -3397,15 +3546,16 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H69" s="19"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="43"/>
@@ -3413,15 +3563,16 @@
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H70" s="19"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="9"/>
+    </row>
+    <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="43"/>
@@ -3429,15 +3580,16 @@
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H71" s="19"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="9"/>
+    </row>
+    <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="43"/>
@@ -3445,15 +3597,16 @@
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H72" s="19"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="9"/>
+    </row>
+    <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="43"/>
@@ -3461,15 +3614,16 @@
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H73" s="19"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="43"/>
@@ -3477,15 +3631,16 @@
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="9"/>
-    </row>
-    <row r="75" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="19"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="9"/>
+    </row>
+    <row r="75" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="43"/>
@@ -3493,15 +3648,16 @@
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H75" s="19"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="9"/>
+    </row>
+    <row r="76" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="43"/>
@@ -3509,15 +3665,16 @@
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="9"/>
-    </row>
-    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H76" s="19"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="43"/>
@@ -3525,15 +3682,16 @@
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="9"/>
-    </row>
-    <row r="78" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="19"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="9"/>
+    </row>
+    <row r="78" spans="1:15" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="43"/>
@@ -3541,15 +3699,16 @@
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="9"/>
-    </row>
-    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H78" s="19"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="9"/>
+    </row>
+    <row r="79" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="43"/>
@@ -3557,15 +3716,16 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="H79" s="19"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="9"/>
+    </row>
+    <row r="80" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="43"/>
@@ -3573,15 +3733,16 @@
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H80" s="33"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="43"/>
@@ -3589,15 +3750,16 @@
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H81" s="33"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="43"/>
@@ -3605,15 +3767,16 @@
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H82" s="33"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="43"/>
@@ -3621,15 +3784,16 @@
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H83" s="33"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="43"/>
@@ -3637,15 +3801,16 @@
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H84" s="19"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="23"/>
@@ -3653,15 +3818,16 @@
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H85" s="19"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="43"/>
@@ -3669,15 +3835,16 @@
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H86" s="26"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="43"/>
@@ -3685,15 +3852,16 @@
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H87" s="26"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="43"/>
@@ -3701,15 +3869,16 @@
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="11"/>
-    </row>
-    <row r="89" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H88" s="26"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="11"/>
+    </row>
+    <row r="89" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="43"/>
@@ -3717,15 +3886,16 @@
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="11"/>
-    </row>
-    <row r="90" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H89" s="26"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="11"/>
+    </row>
+    <row r="90" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="43"/>
@@ -3733,15 +3903,16 @@
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="9"/>
-    </row>
-    <row r="91" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="26"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="1:16" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="43"/>
@@ -3749,15 +3920,16 @@
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H91" s="26"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="43"/>
@@ -3765,16 +3937,17 @@
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="12"/>
-    </row>
-    <row r="93" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H92" s="26"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="12"/>
+    </row>
+    <row r="93" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="43"/>
@@ -3782,16 +3955,17 @@
       <c r="E93" s="26"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="12"/>
-    </row>
-    <row r="94" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H93" s="26"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="12"/>
+    </row>
+    <row r="94" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="43"/>
@@ -3799,16 +3973,17 @@
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="12"/>
-    </row>
-    <row r="95" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H94" s="26"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="12"/>
+    </row>
+    <row r="95" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="23"/>
@@ -3816,16 +3991,17 @@
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="12"/>
-    </row>
-    <row r="96" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H95" s="19"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="12"/>
+    </row>
+    <row r="96" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="23"/>
@@ -3833,16 +4009,17 @@
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="12"/>
-    </row>
-    <row r="97" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H96" s="19"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="12"/>
+    </row>
+    <row r="97" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="23"/>
@@ -3850,16 +4027,17 @@
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="22"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="12"/>
-    </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H97" s="19"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="12"/>
+    </row>
+    <row r="98" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="23"/>
@@ -3867,16 +4045,17 @@
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="22"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="12"/>
-    </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H98" s="19"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="12"/>
+    </row>
+    <row r="99" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="43"/>
@@ -3884,16 +4063,17 @@
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="12"/>
-    </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H99" s="26"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="12"/>
+    </row>
+    <row r="100" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="23"/>
@@ -3901,16 +4081,17 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="12"/>
-    </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H100" s="18"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="12"/>
+    </row>
+    <row r="101" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="32"/>
@@ -3918,16 +4099,17 @@
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="22"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="12"/>
-    </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H101" s="18"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="12"/>
+    </row>
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="23"/>
@@ -3935,16 +4117,17 @@
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="31"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="12"/>
-    </row>
-    <row r="103" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H102" s="18"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="12"/>
+    </row>
+    <row r="103" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="23"/>
@@ -3952,16 +4135,17 @@
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="22"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="12"/>
-    </row>
-    <row r="104" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H103" s="18"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="12"/>
+    </row>
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="23"/>
@@ -3969,16 +4153,17 @@
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="12"/>
-    </row>
-    <row r="105" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H104" s="18"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="12"/>
+    </row>
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="23"/>
@@ -3986,16 +4171,17 @@
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="31"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="12"/>
-    </row>
-    <row r="106" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H105" s="18"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="12"/>
+    </row>
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="23"/>
@@ -4003,16 +4189,17 @@
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="22"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="12"/>
-    </row>
-    <row r="107" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H106" s="18"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="12"/>
+    </row>
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="23"/>
@@ -4020,16 +4207,17 @@
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="12"/>
-    </row>
-    <row r="108" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="18"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="12"/>
+    </row>
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="23"/>
@@ -4037,16 +4225,17 @@
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="31"/>
-      <c r="K108" s="22"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="12"/>
-    </row>
-    <row r="109" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H108" s="18"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="12"/>
+    </row>
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="23"/>
@@ -4054,16 +4243,17 @@
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="12"/>
-    </row>
-    <row r="110" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="18"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="12"/>
+    </row>
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="23"/>
@@ -4071,16 +4261,17 @@
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="12"/>
-    </row>
-    <row r="111" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H110" s="18"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="12"/>
+    </row>
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="23"/>
@@ -4088,16 +4279,17 @@
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="31"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="12"/>
-    </row>
-    <row r="112" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H111" s="18"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="12"/>
+    </row>
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="23"/>
@@ -4105,16 +4297,17 @@
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="12"/>
-    </row>
-    <row r="113" spans="1:15" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="18"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="12"/>
+    </row>
+    <row r="113" spans="1:16" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="23"/>
@@ -4122,16 +4315,17 @@
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="12"/>
-    </row>
-    <row r="114" spans="1:15" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="18"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="31"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="12"/>
+    </row>
+    <row r="114" spans="1:16" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="23"/>
@@ -4139,16 +4333,17 @@
       <c r="E114" s="18"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="31"/>
-      <c r="K114" s="22"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="12"/>
-    </row>
-    <row r="115" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="H114" s="18"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="31"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="12"/>
+    </row>
+    <row r="115" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="23"/>
@@ -4156,16 +4351,17 @@
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="12"/>
-    </row>
-    <row r="116" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="18"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="12"/>
+    </row>
+    <row r="116" spans="1:16" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="23"/>
@@ -4173,16 +4369,17 @@
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="12"/>
-    </row>
-    <row r="117" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="18"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="31"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="12"/>
+    </row>
+    <row r="117" spans="1:16" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="23"/>
@@ -4190,16 +4387,17 @@
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="29"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="12"/>
-    </row>
-    <row r="118" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="18"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="29"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="12"/>
+    </row>
+    <row r="118" spans="1:16" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="43"/>
@@ -4207,16 +4405,17 @@
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
       <c r="G118" s="18"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="12"/>
-    </row>
-    <row r="119" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="18"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="12"/>
+    </row>
+    <row r="119" spans="1:16" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="43"/>
@@ -4224,16 +4423,17 @@
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="28"/>
-      <c r="M119" s="29"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="12"/>
-    </row>
-    <row r="120" spans="1:15" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="18"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="28"/>
+      <c r="N119" s="29"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="12"/>
+    </row>
+    <row r="120" spans="1:16" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="43"/>
@@ -4241,16 +4441,17 @@
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="31"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="12"/>
-    </row>
-    <row r="121" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="18"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="12"/>
+    </row>
+    <row r="121" spans="1:16" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="43"/>
@@ -4258,16 +4459,17 @@
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="25"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="12"/>
-    </row>
-    <row r="122" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="18"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="12"/>
+    </row>
+    <row r="122" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="43"/>
@@ -4275,15 +4477,16 @@
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
       <c r="G122" s="18"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="31"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="9"/>
-    </row>
-    <row r="123" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="18"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="9"/>
+    </row>
+    <row r="123" spans="1:16" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="43"/>
@@ -4291,15 +4494,16 @@
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="25"/>
-      <c r="N123" s="9"/>
-    </row>
-    <row r="124" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="H123" s="18"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="9"/>
+    </row>
+    <row r="124" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="23"/>
@@ -4307,15 +4511,16 @@
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="G124" s="18"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="31"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="9"/>
-    </row>
-    <row r="125" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H124" s="18"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="9"/>
+    </row>
+    <row r="125" spans="1:16" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="23"/>
@@ -4323,15 +4528,16 @@
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="31"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="25"/>
-      <c r="N125" s="9"/>
-    </row>
-    <row r="126" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H125" s="18"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="23"/>
@@ -4339,15 +4545,16 @@
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="9"/>
-    </row>
-    <row r="127" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="18"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="43"/>
@@ -4355,15 +4562,16 @@
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="9"/>
-    </row>
-    <row r="128" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="19"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="43"/>
@@ -4371,15 +4579,16 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="17"/>
-    </row>
-    <row r="129" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="19"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="17"/>
+    </row>
+    <row r="129" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="23"/>
@@ -4387,17 +4596,18 @@
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="22"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="39"/>
-      <c r="O129" s="40"/>
-      <c r="P129" s="38"/>
-    </row>
-    <row r="130" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="19"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="38"/>
+    </row>
+    <row r="130" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="23"/>
@@ -4405,17 +4615,18 @@
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="31"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="37"/>
-      <c r="O130" s="40"/>
-      <c r="P130" s="38"/>
-    </row>
-    <row r="131" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="19"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="31"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="38"/>
+    </row>
+    <row r="131" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="23"/>
@@ -4423,15 +4634,16 @@
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="14"/>
-    </row>
-    <row r="132" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="19"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="31"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="14"/>
+    </row>
+    <row r="132" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="23"/>
@@ -4439,17 +4651,18 @@
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="31"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="37"/>
-      <c r="O132" s="40"/>
-      <c r="P132" s="38"/>
-    </row>
-    <row r="133" spans="1:16" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="19"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="31"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="38"/>
+    </row>
+    <row r="133" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="23"/>
@@ -4457,17 +4670,18 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="31"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="35"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="40"/>
-      <c r="P133" s="38"/>
-    </row>
-    <row r="134" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="19"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="40"/>
+      <c r="Q133" s="38"/>
+    </row>
+    <row r="134" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="23"/>
@@ -4475,17 +4689,18 @@
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="31"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="40"/>
-      <c r="P134" s="38"/>
-    </row>
-    <row r="135" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="19"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="31"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="40"/>
+      <c r="Q134" s="38"/>
+    </row>
+    <row r="135" spans="1:17" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="23"/>
@@ -4493,17 +4708,18 @@
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="31"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="22"/>
-      <c r="N135" s="37"/>
-      <c r="O135" s="40"/>
-      <c r="P135" s="38"/>
-    </row>
-    <row r="136" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="19"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="40"/>
+      <c r="Q135" s="38"/>
+    </row>
+    <row r="136" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="23"/>
@@ -4511,17 +4727,18 @@
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="31"/>
-      <c r="K136" s="22"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="37"/>
-      <c r="O136" s="30"/>
-      <c r="P136" s="38"/>
-    </row>
-    <row r="137" spans="1:16" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="19"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="38"/>
+    </row>
+    <row r="137" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="23"/>
@@ -4529,17 +4746,18 @@
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="31"/>
-      <c r="K137" s="22"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="25"/>
-      <c r="N137" s="37"/>
-      <c r="O137" s="30"/>
-      <c r="P137" s="38"/>
-    </row>
-    <row r="138" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="19"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="37"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="38"/>
+    </row>
+    <row r="138" spans="1:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="23"/>
@@ -4547,17 +4765,18 @@
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="31"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="22"/>
-      <c r="N138" s="37"/>
-      <c r="O138" s="30"/>
-      <c r="P138" s="38"/>
-    </row>
-    <row r="139" spans="1:16" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="19"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="37"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="38"/>
+    </row>
+    <row r="139" spans="1:17" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="43"/>
@@ -4565,15 +4784,16 @@
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="31"/>
-      <c r="K139" s="22"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="22"/>
-      <c r="N139" s="9"/>
-    </row>
-    <row r="140" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="19"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="31"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="9"/>
+    </row>
+    <row r="140" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="43"/>
@@ -4581,15 +4801,16 @@
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="31"/>
-      <c r="K140" s="22"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="22"/>
-      <c r="N140" s="9"/>
-    </row>
-    <row r="141" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H140" s="19"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="9"/>
+    </row>
+    <row r="141" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="43"/>
@@ -4597,14 +4818,15 @@
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="31"/>
-      <c r="K141" s="22"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="22"/>
-    </row>
-    <row r="142" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H141" s="19"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="22"/>
+    </row>
+    <row r="142" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="43"/>
@@ -4612,14 +4834,15 @@
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="31"/>
-      <c r="K142" s="22"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="22"/>
-    </row>
-    <row r="143" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H142" s="19"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="31"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="22"/>
+    </row>
+    <row r="143" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="43"/>
@@ -4627,14 +4850,15 @@
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="31"/>
-      <c r="K143" s="22"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="22"/>
-    </row>
-    <row r="144" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="H143" s="19"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="22"/>
+    </row>
+    <row r="144" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="43"/>
@@ -4642,14 +4866,15 @@
       <c r="E144" s="19"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="31"/>
-      <c r="K144" s="22"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="22"/>
-    </row>
-    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="H144" s="19"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="31"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="22"/>
+    </row>
+    <row r="145" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="43"/>
@@ -4657,20 +4882,18 @@
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="22"/>
-      <c r="L145" s="20"/>
-      <c r="M145" s="22"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="31"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2:H23" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
+++ b/src/main/resources/caseconf/userBatchqueryById/Case_userBatchqueryById.xlsx
@@ -1119,15 +1119,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>/batchQueryById</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1135,15 +1126,6 @@
     <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
 delete from user_index where tenant_user_id = "005" and tenant_id = "1001"
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1183,6 +1165,24 @@
       </rPr>
       <t>005</t>
     </r>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","","","","","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1837,9 +1837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -1936,7 +1936,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -2008,7 +2008,7 @@
         <v>102</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -2043,7 +2043,7 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -2082,7 +2082,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -2157,7 +2157,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -2196,7 +2196,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -2235,7 +2235,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -2274,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -2314,7 +2314,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -2353,7 +2353,7 @@
         <v>100</v>
       </c>
       <c r="H13" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -2393,7 +2393,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -2433,7 +2433,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -2473,13 +2473,13 @@
         <v>100</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>12</v>
@@ -2507,13 +2507,13 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -2547,13 +2547,13 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
         <v>14</v>
@@ -2589,11 +2589,11 @@
       <c r="F19" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="48" t="s">
-        <v>100</v>
+      <c r="G19" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="H19" s="68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
